--- a/biology/Botanique/Lloydia/Lloydia.xlsx
+++ b/biology/Botanique/Lloydia/Lloydia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lloydia est un genre de plantes de la famille des Liliacées. Selon Kew Garden World Checklist, Lloydia est synonyme de Gagea[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lloydia est un genre de plantes de la famille des Liliacées. Selon Kew Garden World Checklist, Lloydia est synonyme de Gagea.
 Le nom Lloydia rend hommage au botaniste Edward Lhuyd.
-Lloydia est aussi le nom d'une revue américaine de botanique fondée à Cincinnati en 1938 par la famille Lloyd[2].
+Lloydia est aussi le nom d'une revue américaine de botanique fondée à Cincinnati en 1938 par la famille Lloyd.
 </t>
         </is>
       </c>
@@ -513,11 +525,13 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon ITIS      (13 avril 2021)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (13 avril 2021) :
 Lloydia serotina (L.) Salisb. ex Rchb.
-Selon NCBI  (13 avril 2021)[4] :
+Selon NCBI  (13 avril 2021) :
 Lloydia ixiolirioides
 Lloydia oxycarpa
 Lloydia tibetica
